--- a/Code/Results/Cases/Case_5_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_155/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.94840724105389</v>
+        <v>11.83567917099368</v>
       </c>
       <c r="C2">
-        <v>8.010199199349096</v>
+        <v>4.347754598935162</v>
       </c>
       <c r="D2">
-        <v>10.4659760001308</v>
+        <v>8.947934791546878</v>
       </c>
       <c r="E2">
-        <v>29.29207655445519</v>
+        <v>16.26076764462834</v>
       </c>
       <c r="F2">
-        <v>64.00348849839871</v>
+        <v>48.67805088739608</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.45703883415789</v>
+        <v>11.26397376326645</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.89716974617537</v>
+        <v>11.67813693589336</v>
       </c>
       <c r="C3">
-        <v>7.420851034210929</v>
+        <v>4.214988554051004</v>
       </c>
       <c r="D3">
-        <v>10.00336552361385</v>
+        <v>8.780091474645269</v>
       </c>
       <c r="E3">
-        <v>27.07277052023556</v>
+        <v>15.35067858270834</v>
       </c>
       <c r="F3">
-        <v>60.2724752862746</v>
+        <v>47.30757573533351</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.55245848992114</v>
+        <v>11.19011341761207</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.22412746399766</v>
+        <v>11.58636506302972</v>
       </c>
       <c r="C4">
-        <v>7.046299247552526</v>
+        <v>4.135341705279166</v>
       </c>
       <c r="D4">
-        <v>9.713688448248009</v>
+        <v>8.67456169930343</v>
       </c>
       <c r="E4">
-        <v>25.65710994757412</v>
+        <v>14.76924474061031</v>
       </c>
       <c r="F4">
-        <v>57.9131720432519</v>
+        <v>46.44854087176736</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.9737966820026</v>
+        <v>11.15011589207205</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94270462414398</v>
+        <v>11.55026953716738</v>
       </c>
       <c r="C5">
-        <v>6.890302909691388</v>
+        <v>4.103436937274511</v>
       </c>
       <c r="D5">
-        <v>9.594222210978979</v>
+        <v>8.630961405431444</v>
       </c>
       <c r="E5">
-        <v>25.06625029105434</v>
+        <v>14.52689045055297</v>
       </c>
       <c r="F5">
-        <v>56.93464768874217</v>
+        <v>46.09446978730535</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.7319330953725</v>
+        <v>11.13517871219945</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.89553668434764</v>
+        <v>11.54435609469561</v>
       </c>
       <c r="C6">
-        <v>6.864192025852259</v>
+        <v>4.098174906308264</v>
       </c>
       <c r="D6">
-        <v>9.574299413075618</v>
+        <v>8.623686385271904</v>
       </c>
       <c r="E6">
-        <v>24.96727753007881</v>
+        <v>14.48632975882486</v>
       </c>
       <c r="F6">
-        <v>56.77113999448057</v>
+        <v>46.03544694541981</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.69140047202472</v>
+        <v>11.13278108349184</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22036132780342</v>
+        <v>11.58587292335369</v>
       </c>
       <c r="C7">
-        <v>7.044209258533677</v>
+        <v>4.134909083424292</v>
       </c>
       <c r="D7">
-        <v>9.712083026796712</v>
+        <v>8.673976068866404</v>
       </c>
       <c r="E7">
-        <v>25.64919875412376</v>
+        <v>14.76599778755941</v>
       </c>
       <c r="F7">
-        <v>57.90004419947699</v>
+        <v>46.44378141327907</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.9705595989977</v>
+        <v>11.14990891000382</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.59152494212687</v>
+        <v>11.78036335212133</v>
       </c>
       <c r="C8">
-        <v>7.809515240882871</v>
+        <v>4.301636603088933</v>
       </c>
       <c r="D8">
-        <v>10.30762765488677</v>
+        <v>8.890590948904729</v>
       </c>
       <c r="E8">
-        <v>28.5374515804689</v>
+        <v>15.95181725065424</v>
       </c>
       <c r="F8">
-        <v>62.73124795725607</v>
+        <v>48.20939132980891</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.14983134619953</v>
+        <v>11.23740628242705</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07291897568242</v>
+        <v>12.19852778953494</v>
       </c>
       <c r="C9">
-        <v>9.218609646744211</v>
+        <v>4.639975696130906</v>
       </c>
       <c r="D9">
-        <v>11.43224581319298</v>
+        <v>9.294669016677213</v>
       </c>
       <c r="E9">
-        <v>33.81402425202079</v>
+        <v>18.09520718372749</v>
       </c>
       <c r="F9">
-        <v>71.66843199173532</v>
+        <v>51.5159290358671</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.28869521263776</v>
+        <v>11.45060662414416</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.78819210934531</v>
+        <v>12.52453779673058</v>
       </c>
       <c r="C10">
-        <v>10.21288829393221</v>
+        <v>4.956420271253551</v>
       </c>
       <c r="D10">
-        <v>12.23623772393601</v>
+        <v>9.577567885519395</v>
       </c>
       <c r="E10">
-        <v>37.50959308030507</v>
+        <v>19.71836995631918</v>
       </c>
       <c r="F10">
-        <v>77.93363352445729</v>
+        <v>53.83016464184879</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.7717735882595</v>
+        <v>11.63127218317549</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.55027038818709</v>
+        <v>12.67612780060961</v>
       </c>
       <c r="C11">
-        <v>10.66048454870023</v>
+        <v>5.135137720577665</v>
       </c>
       <c r="D11">
-        <v>12.59873897280503</v>
+        <v>9.702968576233385</v>
       </c>
       <c r="E11">
-        <v>39.16699877803314</v>
+        <v>20.4159767303297</v>
       </c>
       <c r="F11">
-        <v>80.72955441955422</v>
+        <v>54.85430601257132</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.43211557270728</v>
+        <v>11.71834083024951</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.83676394758994</v>
+        <v>12.73393651624347</v>
       </c>
       <c r="C12">
-        <v>10.82973617612726</v>
+        <v>5.201349327230089</v>
       </c>
       <c r="D12">
-        <v>12.73573069321881</v>
+        <v>9.749960865130955</v>
       </c>
       <c r="E12">
-        <v>39.79284306569957</v>
+        <v>20.67431822616802</v>
       </c>
       <c r="F12">
-        <v>81.78184059362702</v>
+        <v>55.23773712079549</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.68060953865747</v>
+        <v>11.75198229709522</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.77514576513085</v>
+        <v>12.72146943886117</v>
       </c>
       <c r="C13">
-        <v>10.79328775234493</v>
+        <v>5.187154467467934</v>
       </c>
       <c r="D13">
-        <v>12.70623596653728</v>
+        <v>9.739862534991182</v>
       </c>
       <c r="E13">
-        <v>39.65810551163816</v>
+        <v>20.61893833800336</v>
       </c>
       <c r="F13">
-        <v>81.55547451124397</v>
+        <v>55.15535765127834</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.62715247190669</v>
+        <v>11.74470770854409</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.57387884137362</v>
+        <v>12.68087602963648</v>
       </c>
       <c r="C14">
-        <v>10.67441105371661</v>
+        <v>5.140614291093826</v>
       </c>
       <c r="D14">
-        <v>12.61001371004905</v>
+        <v>9.706844680352742</v>
       </c>
       <c r="E14">
-        <v>39.21851237871696</v>
+        <v>20.43734721311222</v>
       </c>
       <c r="F14">
-        <v>80.81624735912266</v>
+        <v>54.88594055689408</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.45258745579204</v>
+        <v>11.72109528440824</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.45034249784609</v>
+        <v>12.65606212215681</v>
       </c>
       <c r="C15">
-        <v>10.60157834376218</v>
+        <v>5.111916613627445</v>
       </c>
       <c r="D15">
-        <v>12.55104481968315</v>
+        <v>9.68655532929994</v>
       </c>
       <c r="E15">
-        <v>38.94907175368771</v>
+        <v>20.32535964171178</v>
       </c>
       <c r="F15">
-        <v>80.36265260947599</v>
+        <v>54.72033555600652</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.34547415933911</v>
+        <v>11.70671833722702</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.73806505536446</v>
+        <v>12.51469136335729</v>
       </c>
       <c r="C16">
-        <v>10.18357720464445</v>
+        <v>4.944535161009044</v>
       </c>
       <c r="D16">
-        <v>12.21249696686855</v>
+        <v>9.569304604059596</v>
       </c>
       <c r="E16">
-        <v>37.40093198265973</v>
+        <v>19.67196230152317</v>
       </c>
       <c r="F16">
-        <v>77.74992816404165</v>
+        <v>53.7626347222059</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.72837078437237</v>
+        <v>11.62567762878983</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.29678802895348</v>
+        <v>12.42875837701742</v>
       </c>
       <c r="C17">
-        <v>9.926223577478584</v>
+        <v>4.839232722154044</v>
       </c>
       <c r="D17">
-        <v>12.00409568740985</v>
+        <v>9.496516754917286</v>
       </c>
       <c r="E17">
-        <v>36.44617756374208</v>
+        <v>19.26070616827286</v>
       </c>
       <c r="F17">
-        <v>76.13406106439129</v>
+        <v>53.1675834113715</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.3464543046892</v>
+        <v>11.57719041949071</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.04122633257303</v>
+        <v>12.37964536786066</v>
       </c>
       <c r="C18">
-        <v>9.777727161982973</v>
+        <v>4.780592728263422</v>
       </c>
       <c r="D18">
-        <v>11.88390996937059</v>
+        <v>9.454342471934888</v>
       </c>
       <c r="E18">
-        <v>35.8946792307711</v>
+        <v>19.02032209695242</v>
       </c>
       <c r="F18">
-        <v>75.19946080651575</v>
+        <v>52.82264678763372</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.1254037518922</v>
+        <v>11.54976348566101</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.95438231375708</v>
+        <v>12.36307244055617</v>
       </c>
       <c r="C19">
-        <v>9.727355692172855</v>
+        <v>4.767846018382396</v>
       </c>
       <c r="D19">
-        <v>11.84315755710459</v>
+        <v>9.440010635262967</v>
       </c>
       <c r="E19">
-        <v>35.70750370167685</v>
+        <v>18.93827146204531</v>
       </c>
       <c r="F19">
-        <v>74.88209450988361</v>
+        <v>52.7054058739826</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.05030883503773</v>
+        <v>11.54055741972845</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.34394041314641</v>
+        <v>12.43787414974016</v>
       </c>
       <c r="C20">
-        <v>9.953665443548905</v>
+        <v>4.850542222961895</v>
       </c>
       <c r="D20">
-        <v>12.02631217300262</v>
+        <v>9.504297244345784</v>
       </c>
       <c r="E20">
-        <v>36.54804517076986</v>
+        <v>19.30488228760288</v>
       </c>
       <c r="F20">
-        <v>76.30660229032604</v>
+        <v>53.23120696085179</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.38724974046498</v>
+        <v>11.58230441343517</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.63304776338813</v>
+        <v>12.69278884607328</v>
       </c>
       <c r="C21">
-        <v>10.70933072192825</v>
+        <v>5.154323946790662</v>
       </c>
       <c r="D21">
-        <v>12.63828235704905</v>
+        <v>9.716556398066107</v>
       </c>
       <c r="E21">
-        <v>39.34766501191459</v>
+        <v>20.49084278024592</v>
       </c>
       <c r="F21">
-        <v>81.03353943694384</v>
+        <v>54.96519605525674</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.50389941234837</v>
+        <v>11.72801289047385</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.46370588815294</v>
+        <v>12.86171943648843</v>
       </c>
       <c r="C22">
-        <v>11.20205479354704</v>
+        <v>5.344329282107878</v>
       </c>
       <c r="D22">
-        <v>13.03673796303803</v>
+        <v>9.852390507646284</v>
       </c>
       <c r="E22">
-        <v>41.16804870808248</v>
+        <v>21.23198899797757</v>
       </c>
       <c r="F22">
-        <v>84.08606584744174</v>
+        <v>56.07276731222953</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.22489033714994</v>
+        <v>11.82713396140711</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.02124806511758</v>
+        <v>12.77136705321076</v>
       </c>
       <c r="C23">
-        <v>10.93901547249348</v>
+        <v>5.243697497079942</v>
       </c>
       <c r="D23">
-        <v>12.82413597976399</v>
+        <v>9.78016424548623</v>
       </c>
       <c r="E23">
-        <v>40.19668966141891</v>
+        <v>20.8395193924209</v>
       </c>
       <c r="F23">
-        <v>82.45970296769731</v>
+        <v>55.4840700462631</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.84069831971753</v>
+        <v>11.77388593053766</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.32262866990699</v>
+        <v>12.43375199731872</v>
       </c>
       <c r="C24">
-        <v>9.941260690586285</v>
+        <v>4.845432291676977</v>
       </c>
       <c r="D24">
-        <v>12.01626927515257</v>
+        <v>9.500780703808287</v>
       </c>
       <c r="E24">
-        <v>36.50199903397326</v>
+        <v>19.28492256224133</v>
       </c>
       <c r="F24">
-        <v>76.22861399148148</v>
+        <v>53.20245155938681</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.36881077514899</v>
+        <v>11.57999097582558</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.4220951098929</v>
+        <v>12.08183514572709</v>
       </c>
       <c r="C25">
-        <v>8.845834624093326</v>
+        <v>4.547697622136287</v>
       </c>
       <c r="D25">
-        <v>11.1323254445023</v>
+        <v>9.187716290591796</v>
       </c>
       <c r="E25">
-        <v>32.42291095818898</v>
+        <v>17.53147427128376</v>
       </c>
       <c r="F25">
-        <v>69.30634411710753</v>
+        <v>50.64028923727977</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.72702072204122</v>
+        <v>11.38860331065448</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_155/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.83567917099368</v>
+        <v>13.94840724105383</v>
       </c>
       <c r="C2">
-        <v>4.347754598935162</v>
+        <v>8.010199199349008</v>
       </c>
       <c r="D2">
-        <v>8.947934791546878</v>
+        <v>10.46597600013108</v>
       </c>
       <c r="E2">
-        <v>16.26076764462834</v>
+        <v>29.29207655445521</v>
       </c>
       <c r="F2">
-        <v>48.67805088739608</v>
+        <v>64.00348849839877</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.26397376326645</v>
+        <v>12.45703883415787</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.67813693589336</v>
+        <v>12.89716974617542</v>
       </c>
       <c r="C3">
-        <v>4.214988554051004</v>
+        <v>7.420851034210719</v>
       </c>
       <c r="D3">
-        <v>8.780091474645269</v>
+        <v>10.00336552361392</v>
       </c>
       <c r="E3">
-        <v>15.35067858270834</v>
+        <v>27.07277052023559</v>
       </c>
       <c r="F3">
-        <v>47.30757573533351</v>
+        <v>60.27247528627478</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.19011341761207</v>
+        <v>11.5524584899212</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.58636506302972</v>
+        <v>12.2241274639977</v>
       </c>
       <c r="C4">
-        <v>4.135341705279166</v>
+        <v>7.046299247552589</v>
       </c>
       <c r="D4">
-        <v>8.67456169930343</v>
+        <v>9.713688448247959</v>
       </c>
       <c r="E4">
-        <v>14.76924474061031</v>
+        <v>25.6571099475741</v>
       </c>
       <c r="F4">
-        <v>46.44854087176736</v>
+        <v>57.91317204325193</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.15011589207205</v>
+        <v>10.97379668200265</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.55026953716738</v>
+        <v>11.94270462414394</v>
       </c>
       <c r="C5">
-        <v>4.103436937274511</v>
+        <v>6.890302909691366</v>
       </c>
       <c r="D5">
-        <v>8.630961405431444</v>
+        <v>9.594222210978911</v>
       </c>
       <c r="E5">
-        <v>14.52689045055297</v>
+        <v>25.06625029105435</v>
       </c>
       <c r="F5">
-        <v>46.09446978730535</v>
+        <v>56.93464768874229</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.13517871219945</v>
+        <v>10.73193309537242</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.54435609469561</v>
+        <v>11.89553668434773</v>
       </c>
       <c r="C6">
-        <v>4.098174906308264</v>
+        <v>6.864192025852311</v>
       </c>
       <c r="D6">
-        <v>8.623686385271904</v>
+        <v>9.574299413075634</v>
       </c>
       <c r="E6">
-        <v>14.48632975882486</v>
+        <v>24.96727753007871</v>
       </c>
       <c r="F6">
-        <v>46.03544694541981</v>
+        <v>56.77113999448059</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.13278108349184</v>
+        <v>10.69140047202477</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.58587292335369</v>
+        <v>12.22036132780349</v>
       </c>
       <c r="C7">
-        <v>4.134909083424292</v>
+        <v>7.044209258533673</v>
       </c>
       <c r="D7">
-        <v>8.673976068866404</v>
+        <v>9.71208302679675</v>
       </c>
       <c r="E7">
-        <v>14.76599778755941</v>
+        <v>25.64919875412378</v>
       </c>
       <c r="F7">
-        <v>46.44378141327907</v>
+        <v>57.90004419947697</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.14990891000382</v>
+        <v>10.97055959899777</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.78036335212133</v>
+        <v>13.59152494212681</v>
       </c>
       <c r="C8">
-        <v>4.301636603088933</v>
+        <v>7.809515240883007</v>
       </c>
       <c r="D8">
-        <v>8.890590948904729</v>
+        <v>10.3076276548868</v>
       </c>
       <c r="E8">
-        <v>15.95181725065424</v>
+        <v>28.53745158046894</v>
       </c>
       <c r="F8">
-        <v>48.20939132980891</v>
+        <v>62.73124795725587</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.23740628242705</v>
+        <v>12.14983134619956</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.19852778953494</v>
+        <v>16.07291897568241</v>
       </c>
       <c r="C9">
-        <v>4.639975696130906</v>
+        <v>9.218609646744326</v>
       </c>
       <c r="D9">
-        <v>9.294669016677213</v>
+        <v>11.43224581319299</v>
       </c>
       <c r="E9">
-        <v>18.09520718372749</v>
+        <v>33.81402425202085</v>
       </c>
       <c r="F9">
-        <v>51.5159290358671</v>
+        <v>71.66843199173523</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.45060662414416</v>
+        <v>14.28869521263783</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.52453779673058</v>
+        <v>17.78819210934527</v>
       </c>
       <c r="C10">
-        <v>4.956420271253551</v>
+        <v>10.21288829393225</v>
       </c>
       <c r="D10">
-        <v>9.577567885519395</v>
+        <v>12.23623772393585</v>
       </c>
       <c r="E10">
-        <v>19.71836995631918</v>
+        <v>37.50959308030512</v>
       </c>
       <c r="F10">
-        <v>53.83016464184879</v>
+        <v>77.9336335244567</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.63127218317549</v>
+        <v>15.7717735882595</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.67612780060961</v>
+        <v>18.55027038818721</v>
       </c>
       <c r="C11">
-        <v>5.135137720577665</v>
+        <v>10.66048454869995</v>
       </c>
       <c r="D11">
-        <v>9.702968576233385</v>
+        <v>12.59873897280503</v>
       </c>
       <c r="E11">
-        <v>20.4159767303297</v>
+        <v>39.16699877803325</v>
       </c>
       <c r="F11">
-        <v>54.85430601257132</v>
+        <v>80.72955441955452</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.71834083024951</v>
+        <v>16.43211557270728</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.73393651624347</v>
+        <v>18.83676394758994</v>
       </c>
       <c r="C12">
-        <v>5.201349327230089</v>
+        <v>10.82973617612716</v>
       </c>
       <c r="D12">
-        <v>9.749960865130955</v>
+        <v>12.73573069321876</v>
       </c>
       <c r="E12">
-        <v>20.67431822616802</v>
+        <v>39.79284306569956</v>
       </c>
       <c r="F12">
-        <v>55.23773712079549</v>
+        <v>81.78184059362673</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.75198229709522</v>
+        <v>16.68060953865747</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.72146943886117</v>
+        <v>18.77514576513092</v>
       </c>
       <c r="C13">
-        <v>5.187154467467934</v>
+        <v>10.79328775234502</v>
       </c>
       <c r="D13">
-        <v>9.739862534991182</v>
+        <v>12.70623596653736</v>
       </c>
       <c r="E13">
-        <v>20.61893833800336</v>
+        <v>39.65810551163822</v>
       </c>
       <c r="F13">
-        <v>55.15535765127834</v>
+        <v>81.55547451124424</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.74470770854409</v>
+        <v>16.62715247190682</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.68087602963648</v>
+        <v>18.57387884137377</v>
       </c>
       <c r="C14">
-        <v>5.140614291093826</v>
+        <v>10.67441105371669</v>
       </c>
       <c r="D14">
-        <v>9.706844680352742</v>
+        <v>12.61001371004927</v>
       </c>
       <c r="E14">
-        <v>20.43734721311222</v>
+        <v>39.21851237871702</v>
       </c>
       <c r="F14">
-        <v>54.88594055689408</v>
+        <v>80.81624735912297</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.72109528440824</v>
+        <v>16.45258745579214</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.65606212215681</v>
+        <v>18.45034249784599</v>
       </c>
       <c r="C15">
-        <v>5.111916613627445</v>
+        <v>10.60157834376224</v>
       </c>
       <c r="D15">
-        <v>9.68655532929994</v>
+        <v>12.55104481968297</v>
       </c>
       <c r="E15">
-        <v>20.32535964171178</v>
+        <v>38.94907175368748</v>
       </c>
       <c r="F15">
-        <v>54.72033555600652</v>
+        <v>80.36265260947518</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.70671833722702</v>
+        <v>16.34547415933903</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.51469136335729</v>
+        <v>17.73806505536434</v>
       </c>
       <c r="C16">
-        <v>4.944535161009044</v>
+        <v>10.18357720464471</v>
       </c>
       <c r="D16">
-        <v>9.569304604059596</v>
+        <v>12.21249696686848</v>
       </c>
       <c r="E16">
-        <v>19.67196230152317</v>
+        <v>37.40093198265962</v>
       </c>
       <c r="F16">
-        <v>53.7626347222059</v>
+        <v>77.74992816404111</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.62567762878983</v>
+        <v>15.72837078437236</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.42875837701742</v>
+        <v>17.29678802895373</v>
       </c>
       <c r="C17">
-        <v>4.839232722154044</v>
+        <v>9.926223577478446</v>
       </c>
       <c r="D17">
-        <v>9.496516754917286</v>
+        <v>12.00409568741008</v>
       </c>
       <c r="E17">
-        <v>19.26070616827286</v>
+        <v>36.4461775637422</v>
       </c>
       <c r="F17">
-        <v>53.1675834113715</v>
+        <v>76.13406106439194</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.57719041949071</v>
+        <v>15.34645430468931</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.37964536786066</v>
+        <v>17.04122633257306</v>
       </c>
       <c r="C18">
-        <v>4.780592728263422</v>
+        <v>9.777727161982961</v>
       </c>
       <c r="D18">
-        <v>9.454342471934888</v>
+        <v>11.88390996937062</v>
       </c>
       <c r="E18">
-        <v>19.02032209695242</v>
+        <v>35.89467923077127</v>
       </c>
       <c r="F18">
-        <v>52.82264678763372</v>
+        <v>75.19946080651586</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.54976348566101</v>
+        <v>15.12540375189222</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.36307244055617</v>
+        <v>16.9543823137571</v>
       </c>
       <c r="C19">
-        <v>4.767846018382396</v>
+        <v>9.727355692172912</v>
       </c>
       <c r="D19">
-        <v>9.440010635262967</v>
+        <v>11.84315755710472</v>
       </c>
       <c r="E19">
-        <v>18.93827146204531</v>
+        <v>35.70750370167683</v>
       </c>
       <c r="F19">
-        <v>52.7054058739826</v>
+        <v>74.88209450988404</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.54055741972845</v>
+        <v>15.05030883503774</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.43787414974016</v>
+        <v>17.3439404131464</v>
       </c>
       <c r="C20">
-        <v>4.850542222961895</v>
+        <v>9.953665443548777</v>
       </c>
       <c r="D20">
-        <v>9.504297244345784</v>
+        <v>12.02631217300273</v>
       </c>
       <c r="E20">
-        <v>19.30488228760288</v>
+        <v>36.5480451707699</v>
       </c>
       <c r="F20">
-        <v>53.23120696085179</v>
+        <v>76.30660229032587</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.58230441343517</v>
+        <v>15.38724974046491</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.69278884607328</v>
+        <v>18.63304776338807</v>
       </c>
       <c r="C21">
-        <v>5.154323946790662</v>
+        <v>10.70933072192831</v>
       </c>
       <c r="D21">
-        <v>9.716556398066107</v>
+        <v>12.63828235704912</v>
       </c>
       <c r="E21">
-        <v>20.49084278024592</v>
+        <v>39.34766501191451</v>
       </c>
       <c r="F21">
-        <v>54.96519605525674</v>
+        <v>81.0335394369439</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.72801289047385</v>
+        <v>16.50389941234832</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.86171943648843</v>
+        <v>19.46370588815302</v>
       </c>
       <c r="C22">
-        <v>5.344329282107878</v>
+        <v>11.20205479354722</v>
       </c>
       <c r="D22">
-        <v>9.852390507646284</v>
+        <v>13.03673796303819</v>
       </c>
       <c r="E22">
-        <v>21.23198899797757</v>
+        <v>41.16804870808244</v>
       </c>
       <c r="F22">
-        <v>56.07276731222953</v>
+        <v>84.08606584744246</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.82713396140711</v>
+        <v>17.22489033715009</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.77136705321076</v>
+        <v>19.02124806511771</v>
       </c>
       <c r="C23">
-        <v>5.243697497079942</v>
+        <v>10.93901547249344</v>
       </c>
       <c r="D23">
-        <v>9.78016424548623</v>
+        <v>12.82413597976415</v>
       </c>
       <c r="E23">
-        <v>20.8395193924209</v>
+        <v>40.19668966141893</v>
       </c>
       <c r="F23">
-        <v>55.4840700462631</v>
+        <v>82.45970296769821</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.77388593053766</v>
+        <v>16.84069831971762</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.43375199731872</v>
+        <v>17.32262866990718</v>
       </c>
       <c r="C24">
-        <v>4.845432291676977</v>
+        <v>9.941260690585953</v>
       </c>
       <c r="D24">
-        <v>9.500780703808287</v>
+        <v>12.01626927515254</v>
       </c>
       <c r="E24">
-        <v>19.28492256224133</v>
+        <v>36.50199903397349</v>
       </c>
       <c r="F24">
-        <v>53.20245155938681</v>
+        <v>76.22861399148123</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.57999097582558</v>
+        <v>15.36881077514898</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.08183514572709</v>
+        <v>15.42209510989294</v>
       </c>
       <c r="C25">
-        <v>4.547697622136287</v>
+        <v>8.845834624093396</v>
       </c>
       <c r="D25">
-        <v>9.187716290591796</v>
+        <v>11.13232544450219</v>
       </c>
       <c r="E25">
-        <v>17.53147427128376</v>
+        <v>32.42291095818899</v>
       </c>
       <c r="F25">
-        <v>50.64028923727977</v>
+        <v>69.30634411710749</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.38860331065448</v>
+        <v>13.72702072204126</v>
       </c>
       <c r="L25">
         <v>0</v>
